--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-9郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-9郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F3637-ADBB-417B-A6E6-1771F7C429EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A063130-94A7-4755-8330-D2CEA62C73C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,7 +141,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
+    <t>增加模组号手工录入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1210,13 +1211,21 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43734</v>
+      </c>
+      <c r="D22" s="8">
+        <v>43734</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="F22" s="8">
+        <v>43734</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
     </row>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-9郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-9郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A063130-94A7-4755-8330-D2CEA62C73C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887EE60-35A5-466E-B7C8-639676EF5245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>增加模组号手工录入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管控根据出入库再进行排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +318,90 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -735,10 +822,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,23 +1316,84 @@
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
     </row>
+    <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="8">
+        <v>43734</v>
+      </c>
+      <c r="D23" s="8">
+        <v>43735</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8">
+        <v>43734</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14 G16:G22">
-    <cfRule type="cellIs" dxfId="10" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
       <formula>"待改进"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="48" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"未开始"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"完成待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"确认完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"待改进"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -1259,7 +1407,7 @@
       <formula>"确认完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
@@ -1274,10 +1422,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,完成待确认,确认完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 G16:G23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"进行中,待改进,完成"</formula1>
     </dataValidation>
   </dataValidations>
